--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hc-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hc-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,10 +540,10 @@
         <v>0.8924259999999999</v>
       </c>
       <c r="I2">
-        <v>0.9510922214987045</v>
+        <v>0.8736649195182647</v>
       </c>
       <c r="J2">
-        <v>0.9510922214987045</v>
+        <v>0.8736649195182647</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>22.017381</v>
+        <v>0.008059999999999999</v>
       </c>
       <c r="N2">
-        <v>66.052143</v>
+        <v>0.02418</v>
       </c>
       <c r="O2">
-        <v>0.9972899807149549</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="P2">
-        <v>0.9972899807149552</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="Q2">
-        <v>6.549627752101999</v>
+        <v>0.002397651186666666</v>
       </c>
       <c r="R2">
-        <v>58.946649768918</v>
+        <v>0.02157886068</v>
       </c>
       <c r="S2">
-        <v>0.9485147432365867</v>
+        <v>0.1250760380698029</v>
       </c>
       <c r="T2">
-        <v>0.948514743236587</v>
+        <v>0.1250760380698029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.8924259999999999</v>
       </c>
       <c r="I3">
-        <v>0.9510922214987045</v>
+        <v>0.8736649195182647</v>
       </c>
       <c r="J3">
-        <v>0.9510922214987045</v>
+        <v>0.8736649195182647</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>0.144719</v>
       </c>
       <c r="O3">
-        <v>0.002185043545356092</v>
+        <v>0.8568375182801556</v>
       </c>
       <c r="P3">
-        <v>0.002185043545356093</v>
+        <v>0.8568375182801555</v>
       </c>
       <c r="Q3">
         <v>0.01435011092155556</v>
@@ -632,15 +632,15 @@
         <v>0.129150998294</v>
       </c>
       <c r="S3">
-        <v>0.002078177919624131</v>
+        <v>0.7485888814484619</v>
       </c>
       <c r="T3">
-        <v>0.002078177919624131</v>
+        <v>0.7485888814484618</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,46 +658,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2974753333333333</v>
+        <v>0.043016</v>
       </c>
       <c r="H4">
-        <v>0.8924259999999999</v>
+        <v>0.129048</v>
       </c>
       <c r="I4">
-        <v>0.9510922214987045</v>
+        <v>0.1263350804817352</v>
       </c>
       <c r="J4">
-        <v>0.9510922214987045</v>
+        <v>0.1263350804817352</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01159</v>
+        <v>0.008059999999999999</v>
       </c>
       <c r="N4">
-        <v>0.03477</v>
+        <v>0.02418</v>
       </c>
       <c r="O4">
-        <v>0.0005249757396888544</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="P4">
-        <v>0.0005249757396888546</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="Q4">
-        <v>0.003447739113333334</v>
+        <v>0.0003467089599999999</v>
       </c>
       <c r="R4">
-        <v>0.03102965202</v>
+        <v>0.00312038064</v>
       </c>
       <c r="S4">
-        <v>0.0004993003424935982</v>
+        <v>0.01808644365004149</v>
       </c>
       <c r="T4">
-        <v>0.0004993003424935983</v>
+        <v>0.01808644365004149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.015297</v>
+        <v>0.043016</v>
       </c>
       <c r="H5">
-        <v>0.045891</v>
+        <v>0.129048</v>
       </c>
       <c r="I5">
-        <v>0.04890777850129541</v>
+        <v>0.1263350804817352</v>
       </c>
       <c r="J5">
-        <v>0.04890777850129541</v>
+        <v>0.1263350804817352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,152 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>22.017381</v>
+        <v>0.04823966666666667</v>
       </c>
       <c r="N5">
-        <v>66.052143</v>
+        <v>0.144719</v>
       </c>
       <c r="O5">
-        <v>0.9972899807149549</v>
+        <v>0.8568375182801556</v>
       </c>
       <c r="P5">
-        <v>0.9972899807149552</v>
+        <v>0.8568375182801555</v>
       </c>
       <c r="Q5">
-        <v>0.336799877157</v>
+        <v>0.002075077501333334</v>
       </c>
       <c r="R5">
-        <v>3.031198894413</v>
+        <v>0.018675697512</v>
       </c>
       <c r="S5">
-        <v>0.04877523747836818</v>
+        <v>0.1082486368316937</v>
       </c>
       <c r="T5">
-        <v>0.0487752374783682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.015297</v>
-      </c>
-      <c r="H6">
-        <v>0.045891</v>
-      </c>
-      <c r="I6">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="J6">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.04823966666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.144719</v>
-      </c>
-      <c r="O6">
-        <v>0.002185043545356092</v>
-      </c>
-      <c r="P6">
-        <v>0.002185043545356093</v>
-      </c>
-      <c r="Q6">
-        <v>0.000737922181</v>
-      </c>
-      <c r="R6">
-        <v>0.006641299629000001</v>
-      </c>
-      <c r="S6">
-        <v>0.000106865625731961</v>
-      </c>
-      <c r="T6">
-        <v>0.000106865625731961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.015297</v>
-      </c>
-      <c r="H7">
-        <v>0.045891</v>
-      </c>
-      <c r="I7">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="J7">
-        <v>0.04890777850129541</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01159</v>
-      </c>
-      <c r="N7">
-        <v>0.03477</v>
-      </c>
-      <c r="O7">
-        <v>0.0005249757396888544</v>
-      </c>
-      <c r="P7">
-        <v>0.0005249757396888546</v>
-      </c>
-      <c r="Q7">
-        <v>0.00017729223</v>
-      </c>
-      <c r="R7">
-        <v>0.00159563007</v>
-      </c>
-      <c r="S7">
-        <v>2.567539719525621E-05</v>
-      </c>
-      <c r="T7">
-        <v>2.567539719525622E-05</v>
+        <v>0.1082486368316937</v>
       </c>
     </row>
   </sheetData>
